--- a/src/test/BugReports/AutomationPracticeStore_BugReport.xlsx
+++ b/src/test/BugReports/AutomationPracticeStore_BugReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="1" state="visible" r:id="rId2"/>
@@ -139,7 +139,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -162,7 +162,7 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color rgb="FF0000FF"/>
+        <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
         <charset val="1"/>
@@ -908,12 +908,13 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -963,7 +964,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -980,12 +981,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -993,10 +994,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1023,11 +1020,11 @@
   </sheetPr>
   <dimension ref="A2:B20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.47"/>
@@ -1140,62 +1137,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:AMJ1022"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+      <selection pane="bottomLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="4" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="19.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="23.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="4" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="4" width="30.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="39.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="4" width="39.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="4" width="25.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="4" width="21.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="4" width="31.81"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="4" width="11.52"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1024" style="5" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="2" customFormat="true" ht="207.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="n">
         <v>1</v>
       </c>
@@ -1211,7 +1209,7 @@
       <c r="E2" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1223,12 +1221,13 @@
       <c r="I2" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="4" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="n">
+      <c r="AMJ2" s="5"/>
+    </row>
+    <row r="3" s="2" customFormat="true" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1237,13 +1236,13 @@
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
       <c r="G3" s="4" t="s">
@@ -1258,9 +1257,10 @@
       <c r="J3" s="4" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="n">
+      <c r="AMJ3" s="5"/>
+    </row>
+    <row r="4" s="2" customFormat="true" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1269,13 +1269,13 @@
       <c r="C4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -1290,9 +1290,10 @@
       <c r="J4" s="4" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="46.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="n">
+      <c r="AMJ4" s="5"/>
+    </row>
+    <row r="5" s="2" customFormat="true" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1301,13 +1302,13 @@
       <c r="C5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="4" t="s">
         <v>55</v>
       </c>
       <c r="G5" s="4" t="s">
@@ -1319,9 +1320,10 @@
       <c r="I5" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="n">
+      <c r="AMJ5" s="5"/>
+    </row>
+    <row r="6" s="2" customFormat="true" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1330,13 +1332,13 @@
       <c r="C6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="4" t="s">
         <v>60</v>
       </c>
       <c r="G6" s="4" t="s">
@@ -1348,9 +1350,10 @@
       <c r="I6" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4" t="n">
+      <c r="AMJ6" s="5"/>
+    </row>
+    <row r="7" s="2" customFormat="true" ht="127.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1359,172 +1362,178 @@
       <c r="C7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="4" t="s">
         <v>69</v>
       </c>
       <c r="I7" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="248.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="n">
+      <c r="AMJ7" s="5"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="248.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="4" t="s">
         <v>75</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="n">
+      <c r="AMJ8" s="5"/>
+    </row>
+    <row r="9" s="2" customFormat="true" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="4" t="s">
+      <c r="G9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="7" t="s">
         <v>80</v>
       </c>
       <c r="I9" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="n">
+      <c r="AMJ9" s="5"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="4" t="s">
+      <c r="G10" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>85</v>
       </c>
       <c r="I10" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="n">
+      <c r="AMJ10" s="5"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="7" t="s">
         <v>90</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="n">
+      <c r="AMJ11" s="5"/>
+    </row>
+    <row r="12" s="2" customFormat="true" ht="138.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="4" t="s">
+      <c r="G12" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>95</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="n">
+      <c r="AMJ12" s="5"/>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="253.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="n">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -1533,27 +1542,28 @@
       <c r="C13" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="4" t="s">
         <v>101</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="n">
+      <c r="AMJ13" s="5"/>
+    </row>
+    <row r="14" s="2" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -1562,27 +1572,28 @@
       <c r="C14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4" t="n">
+      <c r="AMJ14" s="5"/>
+    </row>
+    <row r="15" s="2" customFormat="true" ht="58.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
         <v>9</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -1591,27 +1602,28 @@
       <c r="C15" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="4" t="s">
         <v>107</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="4" t="n">
+      <c r="AMJ15" s="5"/>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="n">
         <v>10</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -1620,27 +1632,28 @@
       <c r="C16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="4" t="s">
         <v>117</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="n">
+      <c r="AMJ16" s="5"/>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="69.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -1649,27 +1662,28 @@
       <c r="C17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="4" t="s">
         <v>123</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4" t="n">
+      <c r="AMJ17" s="5"/>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="92.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="n">
         <v>7</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -1678,27 +1692,28 @@
       <c r="C18" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="4" t="s">
         <v>128</v>
       </c>
       <c r="I18" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="265.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4" t="n">
+      <c r="AMJ18" s="5"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="265.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="n">
         <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -1707,27 +1722,28 @@
       <c r="C19" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="7" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="n">
+      <c r="AMJ19" s="5"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -1736,27 +1752,28 @@
       <c r="C20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I20" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="n">
+      <c r="AMJ20" s="5"/>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="242.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="n">
         <v>13</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -1765,27 +1782,28 @@
       <c r="C21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="4" t="s">
         <v>144</v>
       </c>
       <c r="I21" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4" t="n">
+      <c r="AMJ21" s="5"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="81.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
         <v>14</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -1797,30 +1815,3025 @@
       <c r="D22" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G22" s="4" t="s">
+      <c r="G22" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="4" t="s">
         <v>150</v>
       </c>
       <c r="I22" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="AMJ22" s="5"/>
+    </row>
+    <row r="23" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ23" s="5"/>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ24" s="5"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ25" s="5"/>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ26" s="5"/>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ27" s="5"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ28" s="5"/>
+    </row>
+    <row r="29" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ29" s="5"/>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ30" s="5"/>
+    </row>
+    <row r="31" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ31" s="5"/>
+    </row>
+    <row r="32" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ32" s="5"/>
+    </row>
+    <row r="33" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ33" s="5"/>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ34" s="5"/>
+    </row>
+    <row r="35" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ35" s="5"/>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ36" s="5"/>
+    </row>
+    <row r="37" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ37" s="5"/>
+    </row>
+    <row r="38" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ38" s="5"/>
+    </row>
+    <row r="39" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ39" s="5"/>
+    </row>
+    <row r="40" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ40" s="5"/>
+    </row>
+    <row r="41" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ41" s="5"/>
+    </row>
+    <row r="42" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ42" s="5"/>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ43" s="5"/>
+    </row>
+    <row r="44" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ44" s="5"/>
+    </row>
+    <row r="45" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ45" s="5"/>
+    </row>
+    <row r="46" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ46" s="5"/>
+    </row>
+    <row r="47" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ47" s="5"/>
+    </row>
+    <row r="48" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ48" s="5"/>
+    </row>
+    <row r="49" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ49" s="5"/>
+    </row>
+    <row r="50" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ50" s="5"/>
+    </row>
+    <row r="51" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ51" s="5"/>
+    </row>
+    <row r="52" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ52" s="5"/>
+    </row>
+    <row r="53" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ53" s="5"/>
+    </row>
+    <row r="54" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ54" s="5"/>
+    </row>
+    <row r="55" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ55" s="5"/>
+    </row>
+    <row r="56" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ56" s="5"/>
+    </row>
+    <row r="57" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ57" s="5"/>
+    </row>
+    <row r="58" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ58" s="5"/>
+    </row>
+    <row r="59" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ59" s="5"/>
+    </row>
+    <row r="60" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ60" s="5"/>
+    </row>
+    <row r="61" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ61" s="5"/>
+    </row>
+    <row r="62" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ62" s="5"/>
+    </row>
+    <row r="63" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ63" s="5"/>
+    </row>
+    <row r="64" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ64" s="5"/>
+    </row>
+    <row r="65" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ65" s="5"/>
+    </row>
+    <row r="66" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ66" s="5"/>
+    </row>
+    <row r="67" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ67" s="5"/>
+    </row>
+    <row r="68" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ68" s="5"/>
+    </row>
+    <row r="69" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ69" s="5"/>
+    </row>
+    <row r="70" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ70" s="5"/>
+    </row>
+    <row r="71" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ71" s="5"/>
+    </row>
+    <row r="72" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ72" s="5"/>
+    </row>
+    <row r="73" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ73" s="5"/>
+    </row>
+    <row r="74" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ74" s="5"/>
+    </row>
+    <row r="75" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ75" s="5"/>
+    </row>
+    <row r="76" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ76" s="5"/>
+    </row>
+    <row r="77" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ77" s="5"/>
+    </row>
+    <row r="78" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ78" s="5"/>
+    </row>
+    <row r="79" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ79" s="5"/>
+    </row>
+    <row r="80" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ80" s="5"/>
+    </row>
+    <row r="81" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ81" s="5"/>
+    </row>
+    <row r="82" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ82" s="5"/>
+    </row>
+    <row r="83" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ83" s="5"/>
+    </row>
+    <row r="84" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ84" s="5"/>
+    </row>
+    <row r="85" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ85" s="5"/>
+    </row>
+    <row r="86" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ86" s="5"/>
+    </row>
+    <row r="87" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ87" s="5"/>
+    </row>
+    <row r="88" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ88" s="5"/>
+    </row>
+    <row r="89" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ89" s="5"/>
+    </row>
+    <row r="90" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ90" s="5"/>
+    </row>
+    <row r="91" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ91" s="5"/>
+    </row>
+    <row r="92" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ92" s="5"/>
+    </row>
+    <row r="93" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ93" s="5"/>
+    </row>
+    <row r="94" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ94" s="5"/>
+    </row>
+    <row r="95" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ95" s="5"/>
+    </row>
+    <row r="96" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ96" s="5"/>
+    </row>
+    <row r="97" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ97" s="5"/>
+    </row>
+    <row r="98" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ98" s="5"/>
+    </row>
+    <row r="99" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ99" s="5"/>
+    </row>
+    <row r="100" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ100" s="5"/>
+    </row>
+    <row r="101" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ101" s="5"/>
+    </row>
+    <row r="102" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ102" s="5"/>
+    </row>
+    <row r="103" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ103" s="5"/>
+    </row>
+    <row r="104" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ104" s="5"/>
+    </row>
+    <row r="105" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ105" s="5"/>
+    </row>
+    <row r="106" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ106" s="5"/>
+    </row>
+    <row r="107" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ107" s="5"/>
+    </row>
+    <row r="108" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ108" s="5"/>
+    </row>
+    <row r="109" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ109" s="5"/>
+    </row>
+    <row r="110" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ110" s="5"/>
+    </row>
+    <row r="111" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ111" s="5"/>
+    </row>
+    <row r="112" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ112" s="5"/>
+    </row>
+    <row r="113" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ113" s="5"/>
+    </row>
+    <row r="114" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ114" s="5"/>
+    </row>
+    <row r="115" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ115" s="5"/>
+    </row>
+    <row r="116" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ116" s="5"/>
+    </row>
+    <row r="117" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ117" s="5"/>
+    </row>
+    <row r="118" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ118" s="5"/>
+    </row>
+    <row r="119" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ119" s="5"/>
+    </row>
+    <row r="120" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ120" s="5"/>
+    </row>
+    <row r="121" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ121" s="5"/>
+    </row>
+    <row r="122" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ122" s="5"/>
+    </row>
+    <row r="123" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ123" s="5"/>
+    </row>
+    <row r="124" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ124" s="5"/>
+    </row>
+    <row r="125" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ125" s="5"/>
+    </row>
+    <row r="126" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ126" s="5"/>
+    </row>
+    <row r="127" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ127" s="5"/>
+    </row>
+    <row r="128" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ128" s="5"/>
+    </row>
+    <row r="129" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ129" s="5"/>
+    </row>
+    <row r="130" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ130" s="5"/>
+    </row>
+    <row r="131" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ131" s="5"/>
+    </row>
+    <row r="132" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ132" s="5"/>
+    </row>
+    <row r="133" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ133" s="5"/>
+    </row>
+    <row r="134" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ134" s="5"/>
+    </row>
+    <row r="135" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ135" s="5"/>
+    </row>
+    <row r="136" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ136" s="5"/>
+    </row>
+    <row r="137" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ137" s="5"/>
+    </row>
+    <row r="138" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ138" s="5"/>
+    </row>
+    <row r="139" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ139" s="5"/>
+    </row>
+    <row r="140" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ140" s="5"/>
+    </row>
+    <row r="141" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ141" s="5"/>
+    </row>
+    <row r="142" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ142" s="5"/>
+    </row>
+    <row r="143" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ143" s="5"/>
+    </row>
+    <row r="144" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ144" s="5"/>
+    </row>
+    <row r="145" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ145" s="5"/>
+    </row>
+    <row r="146" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ146" s="5"/>
+    </row>
+    <row r="147" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ147" s="5"/>
+    </row>
+    <row r="148" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ148" s="5"/>
+    </row>
+    <row r="149" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ149" s="5"/>
+    </row>
+    <row r="150" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ150" s="5"/>
+    </row>
+    <row r="151" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ151" s="5"/>
+    </row>
+    <row r="152" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ152" s="5"/>
+    </row>
+    <row r="153" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ153" s="5"/>
+    </row>
+    <row r="154" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ154" s="5"/>
+    </row>
+    <row r="155" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ155" s="5"/>
+    </row>
+    <row r="156" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ156" s="5"/>
+    </row>
+    <row r="157" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ157" s="5"/>
+    </row>
+    <row r="158" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ158" s="5"/>
+    </row>
+    <row r="159" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ159" s="5"/>
+    </row>
+    <row r="160" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ160" s="5"/>
+    </row>
+    <row r="161" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ161" s="5"/>
+    </row>
+    <row r="162" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ162" s="5"/>
+    </row>
+    <row r="163" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ163" s="5"/>
+    </row>
+    <row r="164" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ164" s="5"/>
+    </row>
+    <row r="165" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ165" s="5"/>
+    </row>
+    <row r="166" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ166" s="5"/>
+    </row>
+    <row r="167" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ167" s="5"/>
+    </row>
+    <row r="168" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ168" s="5"/>
+    </row>
+    <row r="169" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ169" s="5"/>
+    </row>
+    <row r="170" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ170" s="5"/>
+    </row>
+    <row r="171" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ171" s="5"/>
+    </row>
+    <row r="172" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ172" s="5"/>
+    </row>
+    <row r="173" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ173" s="5"/>
+    </row>
+    <row r="174" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ174" s="5"/>
+    </row>
+    <row r="175" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ175" s="5"/>
+    </row>
+    <row r="176" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ176" s="5"/>
+    </row>
+    <row r="177" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ177" s="5"/>
+    </row>
+    <row r="178" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ178" s="5"/>
+    </row>
+    <row r="179" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ179" s="5"/>
+    </row>
+    <row r="180" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ180" s="5"/>
+    </row>
+    <row r="181" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ181" s="5"/>
+    </row>
+    <row r="182" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ182" s="5"/>
+    </row>
+    <row r="183" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ183" s="5"/>
+    </row>
+    <row r="184" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ184" s="5"/>
+    </row>
+    <row r="185" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ185" s="5"/>
+    </row>
+    <row r="186" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ186" s="5"/>
+    </row>
+    <row r="187" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ187" s="5"/>
+    </row>
+    <row r="188" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ188" s="5"/>
+    </row>
+    <row r="189" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ189" s="5"/>
+    </row>
+    <row r="190" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ190" s="5"/>
+    </row>
+    <row r="191" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ191" s="5"/>
+    </row>
+    <row r="192" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ192" s="5"/>
+    </row>
+    <row r="193" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ193" s="5"/>
+    </row>
+    <row r="194" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ194" s="5"/>
+    </row>
+    <row r="195" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ195" s="5"/>
+    </row>
+    <row r="196" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ196" s="5"/>
+    </row>
+    <row r="197" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ197" s="5"/>
+    </row>
+    <row r="198" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ198" s="5"/>
+    </row>
+    <row r="199" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ199" s="5"/>
+    </row>
+    <row r="200" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ200" s="5"/>
+    </row>
+    <row r="201" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ201" s="5"/>
+    </row>
+    <row r="202" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ202" s="5"/>
+    </row>
+    <row r="203" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ203" s="5"/>
+    </row>
+    <row r="204" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ204" s="5"/>
+    </row>
+    <row r="205" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ205" s="5"/>
+    </row>
+    <row r="206" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ206" s="5"/>
+    </row>
+    <row r="207" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ207" s="5"/>
+    </row>
+    <row r="208" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ208" s="5"/>
+    </row>
+    <row r="209" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ209" s="5"/>
+    </row>
+    <row r="210" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ210" s="5"/>
+    </row>
+    <row r="211" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ211" s="5"/>
+    </row>
+    <row r="212" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ212" s="5"/>
+    </row>
+    <row r="213" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ213" s="5"/>
+    </row>
+    <row r="214" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ214" s="5"/>
+    </row>
+    <row r="215" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ215" s="5"/>
+    </row>
+    <row r="216" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ216" s="5"/>
+    </row>
+    <row r="217" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ217" s="5"/>
+    </row>
+    <row r="218" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ218" s="5"/>
+    </row>
+    <row r="219" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ219" s="5"/>
+    </row>
+    <row r="220" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ220" s="5"/>
+    </row>
+    <row r="221" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ221" s="5"/>
+    </row>
+    <row r="222" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ222" s="5"/>
+    </row>
+    <row r="223" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ223" s="5"/>
+    </row>
+    <row r="224" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ224" s="5"/>
+    </row>
+    <row r="225" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ225" s="5"/>
+    </row>
+    <row r="226" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ226" s="5"/>
+    </row>
+    <row r="227" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ227" s="5"/>
+    </row>
+    <row r="228" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ228" s="5"/>
+    </row>
+    <row r="229" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ229" s="5"/>
+    </row>
+    <row r="230" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ230" s="5"/>
+    </row>
+    <row r="231" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ231" s="5"/>
+    </row>
+    <row r="232" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ232" s="5"/>
+    </row>
+    <row r="233" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ233" s="5"/>
+    </row>
+    <row r="234" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ234" s="5"/>
+    </row>
+    <row r="235" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ235" s="5"/>
+    </row>
+    <row r="236" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ236" s="5"/>
+    </row>
+    <row r="237" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ237" s="5"/>
+    </row>
+    <row r="238" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ238" s="5"/>
+    </row>
+    <row r="239" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ239" s="5"/>
+    </row>
+    <row r="240" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ240" s="5"/>
+    </row>
+    <row r="241" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ241" s="5"/>
+    </row>
+    <row r="242" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ242" s="5"/>
+    </row>
+    <row r="243" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ243" s="5"/>
+    </row>
+    <row r="244" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ244" s="5"/>
+    </row>
+    <row r="245" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ245" s="5"/>
+    </row>
+    <row r="246" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ246" s="5"/>
+    </row>
+    <row r="247" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ247" s="5"/>
+    </row>
+    <row r="248" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ248" s="5"/>
+    </row>
+    <row r="249" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ249" s="5"/>
+    </row>
+    <row r="250" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ250" s="5"/>
+    </row>
+    <row r="251" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ251" s="5"/>
+    </row>
+    <row r="252" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ252" s="5"/>
+    </row>
+    <row r="253" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ253" s="5"/>
+    </row>
+    <row r="254" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ254" s="5"/>
+    </row>
+    <row r="255" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ255" s="5"/>
+    </row>
+    <row r="256" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ256" s="5"/>
+    </row>
+    <row r="257" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ257" s="5"/>
+    </row>
+    <row r="258" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ258" s="5"/>
+    </row>
+    <row r="259" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ259" s="5"/>
+    </row>
+    <row r="260" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ260" s="5"/>
+    </row>
+    <row r="261" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ261" s="5"/>
+    </row>
+    <row r="262" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ262" s="5"/>
+    </row>
+    <row r="263" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ263" s="5"/>
+    </row>
+    <row r="264" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ264" s="5"/>
+    </row>
+    <row r="265" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ265" s="5"/>
+    </row>
+    <row r="266" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ266" s="5"/>
+    </row>
+    <row r="267" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ267" s="5"/>
+    </row>
+    <row r="268" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ268" s="5"/>
+    </row>
+    <row r="269" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ269" s="5"/>
+    </row>
+    <row r="270" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ270" s="5"/>
+    </row>
+    <row r="271" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ271" s="5"/>
+    </row>
+    <row r="272" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ272" s="5"/>
+    </row>
+    <row r="273" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ273" s="5"/>
+    </row>
+    <row r="274" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ274" s="5"/>
+    </row>
+    <row r="275" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ275" s="5"/>
+    </row>
+    <row r="276" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ276" s="5"/>
+    </row>
+    <row r="277" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ277" s="5"/>
+    </row>
+    <row r="278" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ278" s="5"/>
+    </row>
+    <row r="279" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ279" s="5"/>
+    </row>
+    <row r="280" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ280" s="5"/>
+    </row>
+    <row r="281" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ281" s="5"/>
+    </row>
+    <row r="282" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ282" s="5"/>
+    </row>
+    <row r="283" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ283" s="5"/>
+    </row>
+    <row r="284" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ284" s="5"/>
+    </row>
+    <row r="285" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ285" s="5"/>
+    </row>
+    <row r="286" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ286" s="5"/>
+    </row>
+    <row r="287" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ287" s="5"/>
+    </row>
+    <row r="288" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ288" s="5"/>
+    </row>
+    <row r="289" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ289" s="5"/>
+    </row>
+    <row r="290" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ290" s="5"/>
+    </row>
+    <row r="291" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ291" s="5"/>
+    </row>
+    <row r="292" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ292" s="5"/>
+    </row>
+    <row r="293" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ293" s="5"/>
+    </row>
+    <row r="294" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ294" s="5"/>
+    </row>
+    <row r="295" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ295" s="5"/>
+    </row>
+    <row r="296" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ296" s="5"/>
+    </row>
+    <row r="297" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ297" s="5"/>
+    </row>
+    <row r="298" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ298" s="5"/>
+    </row>
+    <row r="299" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ299" s="5"/>
+    </row>
+    <row r="300" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ300" s="5"/>
+    </row>
+    <row r="301" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ301" s="5"/>
+    </row>
+    <row r="302" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ302" s="5"/>
+    </row>
+    <row r="303" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ303" s="5"/>
+    </row>
+    <row r="304" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ304" s="5"/>
+    </row>
+    <row r="305" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ305" s="5"/>
+    </row>
+    <row r="306" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ306" s="5"/>
+    </row>
+    <row r="307" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ307" s="5"/>
+    </row>
+    <row r="308" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ308" s="5"/>
+    </row>
+    <row r="309" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ309" s="5"/>
+    </row>
+    <row r="310" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ310" s="5"/>
+    </row>
+    <row r="311" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ311" s="5"/>
+    </row>
+    <row r="312" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ312" s="5"/>
+    </row>
+    <row r="313" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ313" s="5"/>
+    </row>
+    <row r="314" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ314" s="5"/>
+    </row>
+    <row r="315" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ315" s="5"/>
+    </row>
+    <row r="316" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ316" s="5"/>
+    </row>
+    <row r="317" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ317" s="5"/>
+    </row>
+    <row r="318" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ318" s="5"/>
+    </row>
+    <row r="319" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ319" s="5"/>
+    </row>
+    <row r="320" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ320" s="5"/>
+    </row>
+    <row r="321" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ321" s="5"/>
+    </row>
+    <row r="322" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ322" s="5"/>
+    </row>
+    <row r="323" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ323" s="5"/>
+    </row>
+    <row r="324" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ324" s="5"/>
+    </row>
+    <row r="325" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ325" s="5"/>
+    </row>
+    <row r="326" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ326" s="5"/>
+    </row>
+    <row r="327" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ327" s="5"/>
+    </row>
+    <row r="328" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ328" s="5"/>
+    </row>
+    <row r="329" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ329" s="5"/>
+    </row>
+    <row r="330" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ330" s="5"/>
+    </row>
+    <row r="331" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ331" s="5"/>
+    </row>
+    <row r="332" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ332" s="5"/>
+    </row>
+    <row r="333" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ333" s="5"/>
+    </row>
+    <row r="334" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ334" s="5"/>
+    </row>
+    <row r="335" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ335" s="5"/>
+    </row>
+    <row r="336" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ336" s="5"/>
+    </row>
+    <row r="337" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ337" s="5"/>
+    </row>
+    <row r="338" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ338" s="5"/>
+    </row>
+    <row r="339" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ339" s="5"/>
+    </row>
+    <row r="340" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ340" s="5"/>
+    </row>
+    <row r="341" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ341" s="5"/>
+    </row>
+    <row r="342" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ342" s="5"/>
+    </row>
+    <row r="343" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ343" s="5"/>
+    </row>
+    <row r="344" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ344" s="5"/>
+    </row>
+    <row r="345" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ345" s="5"/>
+    </row>
+    <row r="346" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ346" s="5"/>
+    </row>
+    <row r="347" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ347" s="5"/>
+    </row>
+    <row r="348" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ348" s="5"/>
+    </row>
+    <row r="349" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ349" s="5"/>
+    </row>
+    <row r="350" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ350" s="5"/>
+    </row>
+    <row r="351" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ351" s="5"/>
+    </row>
+    <row r="352" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ352" s="5"/>
+    </row>
+    <row r="353" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ353" s="5"/>
+    </row>
+    <row r="354" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ354" s="5"/>
+    </row>
+    <row r="355" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ355" s="5"/>
+    </row>
+    <row r="356" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ356" s="5"/>
+    </row>
+    <row r="357" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ357" s="5"/>
+    </row>
+    <row r="358" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ358" s="5"/>
+    </row>
+    <row r="359" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ359" s="5"/>
+    </row>
+    <row r="360" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ360" s="5"/>
+    </row>
+    <row r="361" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ361" s="5"/>
+    </row>
+    <row r="362" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ362" s="5"/>
+    </row>
+    <row r="363" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ363" s="5"/>
+    </row>
+    <row r="364" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ364" s="5"/>
+    </row>
+    <row r="365" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ365" s="5"/>
+    </row>
+    <row r="366" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ366" s="5"/>
+    </row>
+    <row r="367" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ367" s="5"/>
+    </row>
+    <row r="368" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ368" s="5"/>
+    </row>
+    <row r="369" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ369" s="5"/>
+    </row>
+    <row r="370" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ370" s="5"/>
+    </row>
+    <row r="371" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ371" s="5"/>
+    </row>
+    <row r="372" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ372" s="5"/>
+    </row>
+    <row r="373" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ373" s="5"/>
+    </row>
+    <row r="374" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ374" s="5"/>
+    </row>
+    <row r="375" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ375" s="5"/>
+    </row>
+    <row r="376" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ376" s="5"/>
+    </row>
+    <row r="377" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ377" s="5"/>
+    </row>
+    <row r="378" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ378" s="5"/>
+    </row>
+    <row r="379" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ379" s="5"/>
+    </row>
+    <row r="380" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ380" s="5"/>
+    </row>
+    <row r="381" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ381" s="5"/>
+    </row>
+    <row r="382" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ382" s="5"/>
+    </row>
+    <row r="383" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ383" s="5"/>
+    </row>
+    <row r="384" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ384" s="5"/>
+    </row>
+    <row r="385" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ385" s="5"/>
+    </row>
+    <row r="386" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ386" s="5"/>
+    </row>
+    <row r="387" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ387" s="5"/>
+    </row>
+    <row r="388" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ388" s="5"/>
+    </row>
+    <row r="389" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ389" s="5"/>
+    </row>
+    <row r="390" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ390" s="5"/>
+    </row>
+    <row r="391" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ391" s="5"/>
+    </row>
+    <row r="392" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ392" s="5"/>
+    </row>
+    <row r="393" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ393" s="5"/>
+    </row>
+    <row r="394" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ394" s="5"/>
+    </row>
+    <row r="395" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ395" s="5"/>
+    </row>
+    <row r="396" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ396" s="5"/>
+    </row>
+    <row r="397" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ397" s="5"/>
+    </row>
+    <row r="398" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ398" s="5"/>
+    </row>
+    <row r="399" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ399" s="5"/>
+    </row>
+    <row r="400" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ400" s="5"/>
+    </row>
+    <row r="401" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ401" s="5"/>
+    </row>
+    <row r="402" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ402" s="5"/>
+    </row>
+    <row r="403" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ403" s="5"/>
+    </row>
+    <row r="404" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ404" s="5"/>
+    </row>
+    <row r="405" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ405" s="5"/>
+    </row>
+    <row r="406" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ406" s="5"/>
+    </row>
+    <row r="407" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ407" s="5"/>
+    </row>
+    <row r="408" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ408" s="5"/>
+    </row>
+    <row r="409" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ409" s="5"/>
+    </row>
+    <row r="410" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ410" s="5"/>
+    </row>
+    <row r="411" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ411" s="5"/>
+    </row>
+    <row r="412" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ412" s="5"/>
+    </row>
+    <row r="413" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ413" s="5"/>
+    </row>
+    <row r="414" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ414" s="5"/>
+    </row>
+    <row r="415" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ415" s="5"/>
+    </row>
+    <row r="416" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ416" s="5"/>
+    </row>
+    <row r="417" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ417" s="5"/>
+    </row>
+    <row r="418" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ418" s="5"/>
+    </row>
+    <row r="419" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ419" s="5"/>
+    </row>
+    <row r="420" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ420" s="5"/>
+    </row>
+    <row r="421" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ421" s="5"/>
+    </row>
+    <row r="422" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ422" s="5"/>
+    </row>
+    <row r="423" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ423" s="5"/>
+    </row>
+    <row r="424" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ424" s="5"/>
+    </row>
+    <row r="425" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ425" s="5"/>
+    </row>
+    <row r="426" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ426" s="5"/>
+    </row>
+    <row r="427" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ427" s="5"/>
+    </row>
+    <row r="428" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ428" s="5"/>
+    </row>
+    <row r="429" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ429" s="5"/>
+    </row>
+    <row r="430" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ430" s="5"/>
+    </row>
+    <row r="431" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ431" s="5"/>
+    </row>
+    <row r="432" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ432" s="5"/>
+    </row>
+    <row r="433" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ433" s="5"/>
+    </row>
+    <row r="434" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ434" s="5"/>
+    </row>
+    <row r="435" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ435" s="5"/>
+    </row>
+    <row r="436" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ436" s="5"/>
+    </row>
+    <row r="437" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ437" s="5"/>
+    </row>
+    <row r="438" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ438" s="5"/>
+    </row>
+    <row r="439" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ439" s="5"/>
+    </row>
+    <row r="440" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ440" s="5"/>
+    </row>
+    <row r="441" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ441" s="5"/>
+    </row>
+    <row r="442" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ442" s="5"/>
+    </row>
+    <row r="443" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ443" s="5"/>
+    </row>
+    <row r="444" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ444" s="5"/>
+    </row>
+    <row r="445" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ445" s="5"/>
+    </row>
+    <row r="446" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ446" s="5"/>
+    </row>
+    <row r="447" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ447" s="5"/>
+    </row>
+    <row r="448" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ448" s="5"/>
+    </row>
+    <row r="449" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ449" s="5"/>
+    </row>
+    <row r="450" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ450" s="5"/>
+    </row>
+    <row r="451" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ451" s="5"/>
+    </row>
+    <row r="452" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ452" s="5"/>
+    </row>
+    <row r="453" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ453" s="5"/>
+    </row>
+    <row r="454" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ454" s="5"/>
+    </row>
+    <row r="455" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ455" s="5"/>
+    </row>
+    <row r="456" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ456" s="5"/>
+    </row>
+    <row r="457" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ457" s="5"/>
+    </row>
+    <row r="458" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ458" s="5"/>
+    </row>
+    <row r="459" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ459" s="5"/>
+    </row>
+    <row r="460" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ460" s="5"/>
+    </row>
+    <row r="461" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ461" s="5"/>
+    </row>
+    <row r="462" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ462" s="5"/>
+    </row>
+    <row r="463" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ463" s="5"/>
+    </row>
+    <row r="464" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ464" s="5"/>
+    </row>
+    <row r="465" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ465" s="5"/>
+    </row>
+    <row r="466" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ466" s="5"/>
+    </row>
+    <row r="467" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ467" s="5"/>
+    </row>
+    <row r="468" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ468" s="5"/>
+    </row>
+    <row r="469" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ469" s="5"/>
+    </row>
+    <row r="470" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ470" s="5"/>
+    </row>
+    <row r="471" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ471" s="5"/>
+    </row>
+    <row r="472" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ472" s="5"/>
+    </row>
+    <row r="473" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ473" s="5"/>
+    </row>
+    <row r="474" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ474" s="5"/>
+    </row>
+    <row r="475" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ475" s="5"/>
+    </row>
+    <row r="476" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ476" s="5"/>
+    </row>
+    <row r="477" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ477" s="5"/>
+    </row>
+    <row r="478" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ478" s="5"/>
+    </row>
+    <row r="479" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ479" s="5"/>
+    </row>
+    <row r="480" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ480" s="5"/>
+    </row>
+    <row r="481" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ481" s="5"/>
+    </row>
+    <row r="482" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ482" s="5"/>
+    </row>
+    <row r="483" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ483" s="5"/>
+    </row>
+    <row r="484" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ484" s="5"/>
+    </row>
+    <row r="485" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ485" s="5"/>
+    </row>
+    <row r="486" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ486" s="5"/>
+    </row>
+    <row r="487" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ487" s="5"/>
+    </row>
+    <row r="488" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ488" s="5"/>
+    </row>
+    <row r="489" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ489" s="5"/>
+    </row>
+    <row r="490" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ490" s="5"/>
+    </row>
+    <row r="491" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ491" s="5"/>
+    </row>
+    <row r="492" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ492" s="5"/>
+    </row>
+    <row r="493" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ493" s="5"/>
+    </row>
+    <row r="494" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ494" s="5"/>
+    </row>
+    <row r="495" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ495" s="5"/>
+    </row>
+    <row r="496" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ496" s="5"/>
+    </row>
+    <row r="497" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ497" s="5"/>
+    </row>
+    <row r="498" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ498" s="5"/>
+    </row>
+    <row r="499" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ499" s="5"/>
+    </row>
+    <row r="500" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ500" s="5"/>
+    </row>
+    <row r="501" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ501" s="5"/>
+    </row>
+    <row r="502" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ502" s="5"/>
+    </row>
+    <row r="503" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ503" s="5"/>
+    </row>
+    <row r="504" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ504" s="5"/>
+    </row>
+    <row r="505" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ505" s="5"/>
+    </row>
+    <row r="506" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ506" s="5"/>
+    </row>
+    <row r="507" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ507" s="5"/>
+    </row>
+    <row r="508" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ508" s="5"/>
+    </row>
+    <row r="509" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ509" s="5"/>
+    </row>
+    <row r="510" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ510" s="5"/>
+    </row>
+    <row r="511" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ511" s="5"/>
+    </row>
+    <row r="512" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ512" s="5"/>
+    </row>
+    <row r="513" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ513" s="5"/>
+    </row>
+    <row r="514" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ514" s="5"/>
+    </row>
+    <row r="515" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ515" s="5"/>
+    </row>
+    <row r="516" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ516" s="5"/>
+    </row>
+    <row r="517" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ517" s="5"/>
+    </row>
+    <row r="518" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ518" s="5"/>
+    </row>
+    <row r="519" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ519" s="5"/>
+    </row>
+    <row r="520" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ520" s="5"/>
+    </row>
+    <row r="521" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ521" s="5"/>
+    </row>
+    <row r="522" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ522" s="5"/>
+    </row>
+    <row r="523" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ523" s="5"/>
+    </row>
+    <row r="524" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ524" s="5"/>
+    </row>
+    <row r="525" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ525" s="5"/>
+    </row>
+    <row r="526" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ526" s="5"/>
+    </row>
+    <row r="527" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ527" s="5"/>
+    </row>
+    <row r="528" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ528" s="5"/>
+    </row>
+    <row r="529" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ529" s="5"/>
+    </row>
+    <row r="530" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ530" s="5"/>
+    </row>
+    <row r="531" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ531" s="5"/>
+    </row>
+    <row r="532" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ532" s="5"/>
+    </row>
+    <row r="533" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ533" s="5"/>
+    </row>
+    <row r="534" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ534" s="5"/>
+    </row>
+    <row r="535" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ535" s="5"/>
+    </row>
+    <row r="536" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ536" s="5"/>
+    </row>
+    <row r="537" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ537" s="5"/>
+    </row>
+    <row r="538" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ538" s="5"/>
+    </row>
+    <row r="539" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ539" s="5"/>
+    </row>
+    <row r="540" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ540" s="5"/>
+    </row>
+    <row r="541" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ541" s="5"/>
+    </row>
+    <row r="542" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ542" s="5"/>
+    </row>
+    <row r="543" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ543" s="5"/>
+    </row>
+    <row r="544" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ544" s="5"/>
+    </row>
+    <row r="545" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ545" s="5"/>
+    </row>
+    <row r="546" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ546" s="5"/>
+    </row>
+    <row r="547" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ547" s="5"/>
+    </row>
+    <row r="548" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ548" s="5"/>
+    </row>
+    <row r="549" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ549" s="5"/>
+    </row>
+    <row r="550" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ550" s="5"/>
+    </row>
+    <row r="551" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ551" s="5"/>
+    </row>
+    <row r="552" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ552" s="5"/>
+    </row>
+    <row r="553" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ553" s="5"/>
+    </row>
+    <row r="554" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ554" s="5"/>
+    </row>
+    <row r="555" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ555" s="5"/>
+    </row>
+    <row r="556" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ556" s="5"/>
+    </row>
+    <row r="557" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ557" s="5"/>
+    </row>
+    <row r="558" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ558" s="5"/>
+    </row>
+    <row r="559" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ559" s="5"/>
+    </row>
+    <row r="560" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ560" s="5"/>
+    </row>
+    <row r="561" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ561" s="5"/>
+    </row>
+    <row r="562" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ562" s="5"/>
+    </row>
+    <row r="563" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ563" s="5"/>
+    </row>
+    <row r="564" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ564" s="5"/>
+    </row>
+    <row r="565" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ565" s="5"/>
+    </row>
+    <row r="566" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ566" s="5"/>
+    </row>
+    <row r="567" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ567" s="5"/>
+    </row>
+    <row r="568" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ568" s="5"/>
+    </row>
+    <row r="569" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ569" s="5"/>
+    </row>
+    <row r="570" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ570" s="5"/>
+    </row>
+    <row r="571" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ571" s="5"/>
+    </row>
+    <row r="572" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ572" s="5"/>
+    </row>
+    <row r="573" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ573" s="5"/>
+    </row>
+    <row r="574" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ574" s="5"/>
+    </row>
+    <row r="575" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ575" s="5"/>
+    </row>
+    <row r="576" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ576" s="5"/>
+    </row>
+    <row r="577" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ577" s="5"/>
+    </row>
+    <row r="578" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ578" s="5"/>
+    </row>
+    <row r="579" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ579" s="5"/>
+    </row>
+    <row r="580" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ580" s="5"/>
+    </row>
+    <row r="581" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ581" s="5"/>
+    </row>
+    <row r="582" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ582" s="5"/>
+    </row>
+    <row r="583" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ583" s="5"/>
+    </row>
+    <row r="584" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ584" s="5"/>
+    </row>
+    <row r="585" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ585" s="5"/>
+    </row>
+    <row r="586" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ586" s="5"/>
+    </row>
+    <row r="587" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ587" s="5"/>
+    </row>
+    <row r="588" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ588" s="5"/>
+    </row>
+    <row r="589" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ589" s="5"/>
+    </row>
+    <row r="590" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ590" s="5"/>
+    </row>
+    <row r="591" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ591" s="5"/>
+    </row>
+    <row r="592" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ592" s="5"/>
+    </row>
+    <row r="593" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ593" s="5"/>
+    </row>
+    <row r="594" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ594" s="5"/>
+    </row>
+    <row r="595" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ595" s="5"/>
+    </row>
+    <row r="596" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ596" s="5"/>
+    </row>
+    <row r="597" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ597" s="5"/>
+    </row>
+    <row r="598" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ598" s="5"/>
+    </row>
+    <row r="599" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ599" s="5"/>
+    </row>
+    <row r="600" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ600" s="5"/>
+    </row>
+    <row r="601" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ601" s="5"/>
+    </row>
+    <row r="602" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ602" s="5"/>
+    </row>
+    <row r="603" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ603" s="5"/>
+    </row>
+    <row r="604" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ604" s="5"/>
+    </row>
+    <row r="605" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ605" s="5"/>
+    </row>
+    <row r="606" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ606" s="5"/>
+    </row>
+    <row r="607" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ607" s="5"/>
+    </row>
+    <row r="608" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ608" s="5"/>
+    </row>
+    <row r="609" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ609" s="5"/>
+    </row>
+    <row r="610" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ610" s="5"/>
+    </row>
+    <row r="611" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ611" s="5"/>
+    </row>
+    <row r="612" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ612" s="5"/>
+    </row>
+    <row r="613" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ613" s="5"/>
+    </row>
+    <row r="614" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ614" s="5"/>
+    </row>
+    <row r="615" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ615" s="5"/>
+    </row>
+    <row r="616" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ616" s="5"/>
+    </row>
+    <row r="617" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ617" s="5"/>
+    </row>
+    <row r="618" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ618" s="5"/>
+    </row>
+    <row r="619" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ619" s="5"/>
+    </row>
+    <row r="620" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ620" s="5"/>
+    </row>
+    <row r="621" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ621" s="5"/>
+    </row>
+    <row r="622" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ622" s="5"/>
+    </row>
+    <row r="623" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ623" s="5"/>
+    </row>
+    <row r="624" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ624" s="5"/>
+    </row>
+    <row r="625" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ625" s="5"/>
+    </row>
+    <row r="626" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ626" s="5"/>
+    </row>
+    <row r="627" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ627" s="5"/>
+    </row>
+    <row r="628" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ628" s="5"/>
+    </row>
+    <row r="629" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ629" s="5"/>
+    </row>
+    <row r="630" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ630" s="5"/>
+    </row>
+    <row r="631" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ631" s="5"/>
+    </row>
+    <row r="632" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ632" s="5"/>
+    </row>
+    <row r="633" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ633" s="5"/>
+    </row>
+    <row r="634" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ634" s="5"/>
+    </row>
+    <row r="635" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ635" s="5"/>
+    </row>
+    <row r="636" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ636" s="5"/>
+    </row>
+    <row r="637" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ637" s="5"/>
+    </row>
+    <row r="638" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ638" s="5"/>
+    </row>
+    <row r="639" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ639" s="5"/>
+    </row>
+    <row r="640" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ640" s="5"/>
+    </row>
+    <row r="641" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ641" s="5"/>
+    </row>
+    <row r="642" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ642" s="5"/>
+    </row>
+    <row r="643" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ643" s="5"/>
+    </row>
+    <row r="644" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ644" s="5"/>
+    </row>
+    <row r="645" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ645" s="5"/>
+    </row>
+    <row r="646" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ646" s="5"/>
+    </row>
+    <row r="647" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ647" s="5"/>
+    </row>
+    <row r="648" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ648" s="5"/>
+    </row>
+    <row r="649" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ649" s="5"/>
+    </row>
+    <row r="650" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ650" s="5"/>
+    </row>
+    <row r="651" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ651" s="5"/>
+    </row>
+    <row r="652" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ652" s="5"/>
+    </row>
+    <row r="653" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ653" s="5"/>
+    </row>
+    <row r="654" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ654" s="5"/>
+    </row>
+    <row r="655" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ655" s="5"/>
+    </row>
+    <row r="656" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ656" s="5"/>
+    </row>
+    <row r="657" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ657" s="5"/>
+    </row>
+    <row r="658" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ658" s="5"/>
+    </row>
+    <row r="659" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ659" s="5"/>
+    </row>
+    <row r="660" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ660" s="5"/>
+    </row>
+    <row r="661" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ661" s="5"/>
+    </row>
+    <row r="662" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ662" s="5"/>
+    </row>
+    <row r="663" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ663" s="5"/>
+    </row>
+    <row r="664" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ664" s="5"/>
+    </row>
+    <row r="665" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ665" s="5"/>
+    </row>
+    <row r="666" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ666" s="5"/>
+    </row>
+    <row r="667" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ667" s="5"/>
+    </row>
+    <row r="668" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ668" s="5"/>
+    </row>
+    <row r="669" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ669" s="5"/>
+    </row>
+    <row r="670" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ670" s="5"/>
+    </row>
+    <row r="671" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ671" s="5"/>
+    </row>
+    <row r="672" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ672" s="5"/>
+    </row>
+    <row r="673" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ673" s="5"/>
+    </row>
+    <row r="674" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ674" s="5"/>
+    </row>
+    <row r="675" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ675" s="5"/>
+    </row>
+    <row r="676" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ676" s="5"/>
+    </row>
+    <row r="677" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ677" s="5"/>
+    </row>
+    <row r="678" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ678" s="5"/>
+    </row>
+    <row r="679" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ679" s="5"/>
+    </row>
+    <row r="680" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ680" s="5"/>
+    </row>
+    <row r="681" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ681" s="5"/>
+    </row>
+    <row r="682" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ682" s="5"/>
+    </row>
+    <row r="683" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ683" s="5"/>
+    </row>
+    <row r="684" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ684" s="5"/>
+    </row>
+    <row r="685" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ685" s="5"/>
+    </row>
+    <row r="686" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ686" s="5"/>
+    </row>
+    <row r="687" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ687" s="5"/>
+    </row>
+    <row r="688" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ688" s="5"/>
+    </row>
+    <row r="689" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ689" s="5"/>
+    </row>
+    <row r="690" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ690" s="5"/>
+    </row>
+    <row r="691" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ691" s="5"/>
+    </row>
+    <row r="692" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ692" s="5"/>
+    </row>
+    <row r="693" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ693" s="5"/>
+    </row>
+    <row r="694" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ694" s="5"/>
+    </row>
+    <row r="695" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ695" s="5"/>
+    </row>
+    <row r="696" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ696" s="5"/>
+    </row>
+    <row r="697" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ697" s="5"/>
+    </row>
+    <row r="698" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ698" s="5"/>
+    </row>
+    <row r="699" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ699" s="5"/>
+    </row>
+    <row r="700" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ700" s="5"/>
+    </row>
+    <row r="701" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ701" s="5"/>
+    </row>
+    <row r="702" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ702" s="5"/>
+    </row>
+    <row r="703" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ703" s="5"/>
+    </row>
+    <row r="704" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ704" s="5"/>
+    </row>
+    <row r="705" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ705" s="5"/>
+    </row>
+    <row r="706" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ706" s="5"/>
+    </row>
+    <row r="707" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ707" s="5"/>
+    </row>
+    <row r="708" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ708" s="5"/>
+    </row>
+    <row r="709" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ709" s="5"/>
+    </row>
+    <row r="710" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ710" s="5"/>
+    </row>
+    <row r="711" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ711" s="5"/>
+    </row>
+    <row r="712" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ712" s="5"/>
+    </row>
+    <row r="713" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ713" s="5"/>
+    </row>
+    <row r="714" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ714" s="5"/>
+    </row>
+    <row r="715" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ715" s="5"/>
+    </row>
+    <row r="716" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ716" s="5"/>
+    </row>
+    <row r="717" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ717" s="5"/>
+    </row>
+    <row r="718" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ718" s="5"/>
+    </row>
+    <row r="719" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ719" s="5"/>
+    </row>
+    <row r="720" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ720" s="5"/>
+    </row>
+    <row r="721" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ721" s="5"/>
+    </row>
+    <row r="722" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ722" s="5"/>
+    </row>
+    <row r="723" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ723" s="5"/>
+    </row>
+    <row r="724" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ724" s="5"/>
+    </row>
+    <row r="725" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ725" s="5"/>
+    </row>
+    <row r="726" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ726" s="5"/>
+    </row>
+    <row r="727" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ727" s="5"/>
+    </row>
+    <row r="728" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ728" s="5"/>
+    </row>
+    <row r="729" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ729" s="5"/>
+    </row>
+    <row r="730" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ730" s="5"/>
+    </row>
+    <row r="731" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ731" s="5"/>
+    </row>
+    <row r="732" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ732" s="5"/>
+    </row>
+    <row r="733" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ733" s="5"/>
+    </row>
+    <row r="734" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ734" s="5"/>
+    </row>
+    <row r="735" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ735" s="5"/>
+    </row>
+    <row r="736" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ736" s="5"/>
+    </row>
+    <row r="737" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ737" s="5"/>
+    </row>
+    <row r="738" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ738" s="5"/>
+    </row>
+    <row r="739" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ739" s="5"/>
+    </row>
+    <row r="740" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ740" s="5"/>
+    </row>
+    <row r="741" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ741" s="5"/>
+    </row>
+    <row r="742" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ742" s="5"/>
+    </row>
+    <row r="743" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ743" s="5"/>
+    </row>
+    <row r="744" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ744" s="5"/>
+    </row>
+    <row r="745" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ745" s="5"/>
+    </row>
+    <row r="746" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ746" s="5"/>
+    </row>
+    <row r="747" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ747" s="5"/>
+    </row>
+    <row r="748" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ748" s="5"/>
+    </row>
+    <row r="749" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ749" s="5"/>
+    </row>
+    <row r="750" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ750" s="5"/>
+    </row>
+    <row r="751" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ751" s="5"/>
+    </row>
+    <row r="752" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ752" s="5"/>
+    </row>
+    <row r="753" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ753" s="5"/>
+    </row>
+    <row r="754" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ754" s="5"/>
+    </row>
+    <row r="755" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ755" s="5"/>
+    </row>
+    <row r="756" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ756" s="5"/>
+    </row>
+    <row r="757" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ757" s="5"/>
+    </row>
+    <row r="758" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ758" s="5"/>
+    </row>
+    <row r="759" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ759" s="5"/>
+    </row>
+    <row r="760" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ760" s="5"/>
+    </row>
+    <row r="761" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ761" s="5"/>
+    </row>
+    <row r="762" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ762" s="5"/>
+    </row>
+    <row r="763" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ763" s="5"/>
+    </row>
+    <row r="764" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ764" s="5"/>
+    </row>
+    <row r="765" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ765" s="5"/>
+    </row>
+    <row r="766" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ766" s="5"/>
+    </row>
+    <row r="767" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ767" s="5"/>
+    </row>
+    <row r="768" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ768" s="5"/>
+    </row>
+    <row r="769" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ769" s="5"/>
+    </row>
+    <row r="770" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ770" s="5"/>
+    </row>
+    <row r="771" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ771" s="5"/>
+    </row>
+    <row r="772" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ772" s="5"/>
+    </row>
+    <row r="773" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ773" s="5"/>
+    </row>
+    <row r="774" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ774" s="5"/>
+    </row>
+    <row r="775" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ775" s="5"/>
+    </row>
+    <row r="776" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ776" s="5"/>
+    </row>
+    <row r="777" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ777" s="5"/>
+    </row>
+    <row r="778" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ778" s="5"/>
+    </row>
+    <row r="779" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ779" s="5"/>
+    </row>
+    <row r="780" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ780" s="5"/>
+    </row>
+    <row r="781" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ781" s="5"/>
+    </row>
+    <row r="782" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ782" s="5"/>
+    </row>
+    <row r="783" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ783" s="5"/>
+    </row>
+    <row r="784" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ784" s="5"/>
+    </row>
+    <row r="785" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ785" s="5"/>
+    </row>
+    <row r="786" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ786" s="5"/>
+    </row>
+    <row r="787" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ787" s="5"/>
+    </row>
+    <row r="788" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ788" s="5"/>
+    </row>
+    <row r="789" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ789" s="5"/>
+    </row>
+    <row r="790" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ790" s="5"/>
+    </row>
+    <row r="791" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ791" s="5"/>
+    </row>
+    <row r="792" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ792" s="5"/>
+    </row>
+    <row r="793" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ793" s="5"/>
+    </row>
+    <row r="794" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ794" s="5"/>
+    </row>
+    <row r="795" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ795" s="5"/>
+    </row>
+    <row r="796" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ796" s="5"/>
+    </row>
+    <row r="797" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ797" s="5"/>
+    </row>
+    <row r="798" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ798" s="5"/>
+    </row>
+    <row r="799" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ799" s="5"/>
+    </row>
+    <row r="800" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ800" s="5"/>
+    </row>
+    <row r="801" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ801" s="5"/>
+    </row>
+    <row r="802" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ802" s="5"/>
+    </row>
+    <row r="803" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ803" s="5"/>
+    </row>
+    <row r="804" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ804" s="5"/>
+    </row>
+    <row r="805" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ805" s="5"/>
+    </row>
+    <row r="806" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ806" s="5"/>
+    </row>
+    <row r="807" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ807" s="5"/>
+    </row>
+    <row r="808" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ808" s="5"/>
+    </row>
+    <row r="809" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ809" s="5"/>
+    </row>
+    <row r="810" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ810" s="5"/>
+    </row>
+    <row r="811" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ811" s="5"/>
+    </row>
+    <row r="812" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ812" s="5"/>
+    </row>
+    <row r="813" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ813" s="5"/>
+    </row>
+    <row r="814" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ814" s="5"/>
+    </row>
+    <row r="815" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ815" s="5"/>
+    </row>
+    <row r="816" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ816" s="5"/>
+    </row>
+    <row r="817" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ817" s="5"/>
+    </row>
+    <row r="818" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ818" s="5"/>
+    </row>
+    <row r="819" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ819" s="5"/>
+    </row>
+    <row r="820" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ820" s="5"/>
+    </row>
+    <row r="821" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ821" s="5"/>
+    </row>
+    <row r="822" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ822" s="5"/>
+    </row>
+    <row r="823" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ823" s="5"/>
+    </row>
+    <row r="824" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ824" s="5"/>
+    </row>
+    <row r="825" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ825" s="5"/>
+    </row>
+    <row r="826" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ826" s="5"/>
+    </row>
+    <row r="827" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ827" s="5"/>
+    </row>
+    <row r="828" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ828" s="5"/>
+    </row>
+    <row r="829" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ829" s="5"/>
+    </row>
+    <row r="830" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ830" s="5"/>
+    </row>
+    <row r="831" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ831" s="5"/>
+    </row>
+    <row r="832" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ832" s="5"/>
+    </row>
+    <row r="833" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ833" s="5"/>
+    </row>
+    <row r="834" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ834" s="5"/>
+    </row>
+    <row r="835" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ835" s="5"/>
+    </row>
+    <row r="836" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ836" s="5"/>
+    </row>
+    <row r="837" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ837" s="5"/>
+    </row>
+    <row r="838" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ838" s="5"/>
+    </row>
+    <row r="839" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ839" s="5"/>
+    </row>
+    <row r="840" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ840" s="5"/>
+    </row>
+    <row r="841" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ841" s="5"/>
+    </row>
+    <row r="842" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ842" s="5"/>
+    </row>
+    <row r="843" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ843" s="5"/>
+    </row>
+    <row r="844" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ844" s="5"/>
+    </row>
+    <row r="845" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ845" s="5"/>
+    </row>
+    <row r="846" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ846" s="5"/>
+    </row>
+    <row r="847" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ847" s="5"/>
+    </row>
+    <row r="848" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ848" s="5"/>
+    </row>
+    <row r="849" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ849" s="5"/>
+    </row>
+    <row r="850" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ850" s="5"/>
+    </row>
+    <row r="851" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ851" s="5"/>
+    </row>
+    <row r="852" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ852" s="5"/>
+    </row>
+    <row r="853" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ853" s="5"/>
+    </row>
+    <row r="854" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ854" s="5"/>
+    </row>
+    <row r="855" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ855" s="5"/>
+    </row>
+    <row r="856" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ856" s="5"/>
+    </row>
+    <row r="857" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ857" s="5"/>
+    </row>
+    <row r="858" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ858" s="5"/>
+    </row>
+    <row r="859" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ859" s="5"/>
+    </row>
+    <row r="860" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ860" s="5"/>
+    </row>
+    <row r="861" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ861" s="5"/>
+    </row>
+    <row r="862" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ862" s="5"/>
+    </row>
+    <row r="863" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ863" s="5"/>
+    </row>
+    <row r="864" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ864" s="5"/>
+    </row>
+    <row r="865" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ865" s="5"/>
+    </row>
+    <row r="866" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ866" s="5"/>
+    </row>
+    <row r="867" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ867" s="5"/>
+    </row>
+    <row r="868" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ868" s="5"/>
+    </row>
+    <row r="869" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ869" s="5"/>
+    </row>
+    <row r="870" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ870" s="5"/>
+    </row>
+    <row r="871" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ871" s="5"/>
+    </row>
+    <row r="872" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ872" s="5"/>
+    </row>
+    <row r="873" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ873" s="5"/>
+    </row>
+    <row r="874" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ874" s="5"/>
+    </row>
+    <row r="875" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ875" s="5"/>
+    </row>
+    <row r="876" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ876" s="5"/>
+    </row>
+    <row r="877" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ877" s="5"/>
+    </row>
+    <row r="878" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ878" s="5"/>
+    </row>
+    <row r="879" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ879" s="5"/>
+    </row>
+    <row r="880" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ880" s="5"/>
+    </row>
+    <row r="881" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ881" s="5"/>
+    </row>
+    <row r="882" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ882" s="5"/>
+    </row>
+    <row r="883" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ883" s="5"/>
+    </row>
+    <row r="884" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ884" s="5"/>
+    </row>
+    <row r="885" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ885" s="5"/>
+    </row>
+    <row r="886" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ886" s="5"/>
+    </row>
+    <row r="887" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ887" s="5"/>
+    </row>
+    <row r="888" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ888" s="5"/>
+    </row>
+    <row r="889" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ889" s="5"/>
+    </row>
+    <row r="890" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ890" s="5"/>
+    </row>
+    <row r="891" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ891" s="5"/>
+    </row>
+    <row r="892" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ892" s="5"/>
+    </row>
+    <row r="893" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ893" s="5"/>
+    </row>
+    <row r="894" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ894" s="5"/>
+    </row>
+    <row r="895" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ895" s="5"/>
+    </row>
+    <row r="896" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ896" s="5"/>
+    </row>
+    <row r="897" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ897" s="5"/>
+    </row>
+    <row r="898" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ898" s="5"/>
+    </row>
+    <row r="899" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ899" s="5"/>
+    </row>
+    <row r="900" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ900" s="5"/>
+    </row>
+    <row r="901" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ901" s="5"/>
+    </row>
+    <row r="902" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ902" s="5"/>
+    </row>
+    <row r="903" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ903" s="5"/>
+    </row>
+    <row r="904" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ904" s="5"/>
+    </row>
+    <row r="905" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ905" s="5"/>
+    </row>
+    <row r="906" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ906" s="5"/>
+    </row>
+    <row r="907" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ907" s="5"/>
+    </row>
+    <row r="908" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ908" s="5"/>
+    </row>
+    <row r="909" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ909" s="5"/>
+    </row>
+    <row r="910" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ910" s="5"/>
+    </row>
+    <row r="911" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ911" s="5"/>
+    </row>
+    <row r="912" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ912" s="5"/>
+    </row>
+    <row r="913" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ913" s="5"/>
+    </row>
+    <row r="914" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ914" s="5"/>
+    </row>
+    <row r="915" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ915" s="5"/>
+    </row>
+    <row r="916" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ916" s="5"/>
+    </row>
+    <row r="917" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ917" s="5"/>
+    </row>
+    <row r="918" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ918" s="5"/>
+    </row>
+    <row r="919" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ919" s="5"/>
+    </row>
+    <row r="920" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ920" s="5"/>
+    </row>
+    <row r="921" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ921" s="5"/>
+    </row>
+    <row r="922" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ922" s="5"/>
+    </row>
+    <row r="923" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ923" s="5"/>
+    </row>
+    <row r="924" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ924" s="5"/>
+    </row>
+    <row r="925" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ925" s="5"/>
+    </row>
+    <row r="926" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ926" s="5"/>
+    </row>
+    <row r="927" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ927" s="5"/>
+    </row>
+    <row r="928" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ928" s="5"/>
+    </row>
+    <row r="929" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ929" s="5"/>
+    </row>
+    <row r="930" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ930" s="5"/>
+    </row>
+    <row r="931" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ931" s="5"/>
+    </row>
+    <row r="932" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ932" s="5"/>
+    </row>
+    <row r="933" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ933" s="5"/>
+    </row>
+    <row r="934" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ934" s="5"/>
+    </row>
+    <row r="935" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ935" s="5"/>
+    </row>
+    <row r="936" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ936" s="5"/>
+    </row>
+    <row r="937" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ937" s="5"/>
+    </row>
+    <row r="938" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ938" s="5"/>
+    </row>
+    <row r="939" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ939" s="5"/>
+    </row>
+    <row r="940" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ940" s="5"/>
+    </row>
+    <row r="941" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ941" s="5"/>
+    </row>
+    <row r="942" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ942" s="5"/>
+    </row>
+    <row r="943" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ943" s="5"/>
+    </row>
+    <row r="944" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ944" s="5"/>
+    </row>
+    <row r="945" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ945" s="5"/>
+    </row>
+    <row r="946" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ946" s="5"/>
+    </row>
+    <row r="947" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ947" s="5"/>
+    </row>
+    <row r="948" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ948" s="5"/>
+    </row>
+    <row r="949" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ949" s="5"/>
+    </row>
+    <row r="950" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ950" s="5"/>
+    </row>
+    <row r="951" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ951" s="5"/>
+    </row>
+    <row r="952" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ952" s="5"/>
+    </row>
+    <row r="953" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ953" s="5"/>
+    </row>
+    <row r="954" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ954" s="5"/>
+    </row>
+    <row r="955" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ955" s="5"/>
+    </row>
+    <row r="956" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ956" s="5"/>
+    </row>
+    <row r="957" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ957" s="5"/>
+    </row>
+    <row r="958" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ958" s="5"/>
+    </row>
+    <row r="959" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ959" s="5"/>
+    </row>
+    <row r="960" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ960" s="5"/>
+    </row>
+    <row r="961" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ961" s="5"/>
+    </row>
+    <row r="962" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ962" s="5"/>
+    </row>
+    <row r="963" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ963" s="5"/>
+    </row>
+    <row r="964" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ964" s="5"/>
+    </row>
+    <row r="965" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ965" s="5"/>
+    </row>
+    <row r="966" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ966" s="5"/>
+    </row>
+    <row r="967" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ967" s="5"/>
+    </row>
+    <row r="968" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ968" s="5"/>
+    </row>
+    <row r="969" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ969" s="5"/>
+    </row>
+    <row r="970" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ970" s="5"/>
+    </row>
+    <row r="971" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ971" s="5"/>
+    </row>
+    <row r="972" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ972" s="5"/>
+    </row>
+    <row r="973" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ973" s="5"/>
+    </row>
+    <row r="974" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ974" s="5"/>
+    </row>
+    <row r="975" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ975" s="5"/>
+    </row>
+    <row r="976" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ976" s="5"/>
+    </row>
+    <row r="977" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ977" s="5"/>
+    </row>
+    <row r="978" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ978" s="5"/>
+    </row>
+    <row r="979" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ979" s="5"/>
+    </row>
+    <row r="980" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ980" s="5"/>
+    </row>
+    <row r="981" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ981" s="5"/>
+    </row>
+    <row r="982" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ982" s="5"/>
+    </row>
+    <row r="983" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ983" s="5"/>
+    </row>
+    <row r="984" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ984" s="5"/>
+    </row>
+    <row r="985" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ985" s="5"/>
+    </row>
+    <row r="986" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ986" s="5"/>
+    </row>
+    <row r="987" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ987" s="5"/>
+    </row>
+    <row r="988" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ988" s="5"/>
+    </row>
+    <row r="989" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ989" s="5"/>
+    </row>
+    <row r="990" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ990" s="5"/>
+    </row>
+    <row r="991" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ991" s="5"/>
+    </row>
+    <row r="992" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ992" s="5"/>
+    </row>
+    <row r="993" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ993" s="5"/>
+    </row>
+    <row r="994" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ994" s="5"/>
+    </row>
+    <row r="995" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ995" s="5"/>
+    </row>
+    <row r="996" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ996" s="5"/>
+    </row>
+    <row r="997" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ997" s="5"/>
+    </row>
+    <row r="998" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ998" s="5"/>
+    </row>
+    <row r="999" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ999" s="5"/>
+    </row>
+    <row r="1000" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1000" s="5"/>
+    </row>
+    <row r="1001" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1001" s="5"/>
+    </row>
+    <row r="1002" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1002" s="5"/>
+    </row>
+    <row r="1003" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1003" s="5"/>
+    </row>
+    <row r="1004" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1004" s="5"/>
+    </row>
+    <row r="1005" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1005" s="5"/>
+    </row>
+    <row r="1006" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1006" s="5"/>
+    </row>
+    <row r="1007" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1007" s="5"/>
+    </row>
+    <row r="1008" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1008" s="5"/>
+    </row>
+    <row r="1009" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1009" s="5"/>
+    </row>
+    <row r="1010" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1010" s="5"/>
+    </row>
+    <row r="1011" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1011" s="5"/>
+    </row>
+    <row r="1012" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1012" s="5"/>
+    </row>
+    <row r="1013" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1013" s="5"/>
+    </row>
+    <row r="1014" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1014" s="5"/>
+    </row>
+    <row r="1015" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1015" s="5"/>
+    </row>
+    <row r="1016" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1016" s="5"/>
+    </row>
+    <row r="1017" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1017" s="5"/>
+    </row>
+    <row r="1018" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1018" s="5"/>
+    </row>
+    <row r="1019" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1019" s="5"/>
+    </row>
+    <row r="1020" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1020" s="5"/>
+    </row>
+    <row r="1021" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1021" s="5"/>
+    </row>
+    <row r="1022" s="2" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ1022" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J22"/>
-  <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="1) Go to main page&#10;http://automationpractice.pl/index.php&#10;2) Click on Best Seller tab&#10;3) Hover on first product ‘Blouse’&#10;4) Click on QuickView btn&#10;5) Enter wanted quantity: 304&#10;(it must exceed available quantity of product)&#10;6) Click on minus btn"/>
-    <hyperlink ref="F4" r:id="rId2" display="1) Go to main page&#10;http://automationpractice.pl/index.php&#10;2) Click on Best Seller tab&#10;3) Hover on first product ‘Blouse’&#10;4) Click on QuickView btn&#10;5) Enter wanted quantity: -0.3&#10;6) Add product to cart&#10;7)Go to cart on home page"/>
-    <hyperlink ref="F5" r:id="rId3" display="1) Go to main page&#10;http://automationpractice.pl/index.php&#10;2) Click on Best Seller tab&#10;3) Hover on first product ‘Blouse’&#10;4) Click on QuickView btn&#10;5) Enter wanted quantity: -5&#10;6) Add product to cart&#10;7) Go to cart on home page"/>
-    <hyperlink ref="F6" r:id="rId4" display="1) Go to main page&#10;http://automationpractice.pl/index.php&#10;2) Click on Best Seller tab&#10;3) Hover on first product ‘Blouse’&#10;4) Click on QuickView btn&#10;5) Enter wanted quantity: -5&#10;6) Click on plus btn"/>
-  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1828,6 +4841,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>